--- a/flow_based_domain/line_edge_map.xlsx
+++ b/flow_based_domain/line_edge_map.xlsx
@@ -607,7 +607,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -629,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -695,7 +695,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
@@ -838,7 +838,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -860,7 +860,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -882,7 +882,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
@@ -948,7 +948,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48">
@@ -959,7 +959,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
@@ -970,7 +970,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -1014,7 +1014,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54">
@@ -1113,7 +1113,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63">
@@ -1300,7 +1300,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80">
@@ -1322,7 +1322,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
@@ -1333,7 +1333,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
@@ -1344,7 +1344,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
@@ -1399,7 +1399,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89">
@@ -1410,7 +1410,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90">
@@ -1432,7 +1432,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92">
@@ -1454,7 +1454,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
@@ -1476,7 +1476,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
@@ -1498,7 +1498,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
@@ -1520,7 +1520,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
@@ -1542,7 +1542,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102">
@@ -1564,7 +1564,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104">
@@ -1586,7 +1586,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106">
@@ -1608,7 +1608,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
@@ -1619,7 +1619,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
@@ -1663,7 +1663,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
@@ -1685,7 +1685,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
@@ -1707,7 +1707,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117">
@@ -1806,7 +1806,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126">
@@ -1828,7 +1828,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128">
@@ -1850,7 +1850,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130">
@@ -1872,7 +1872,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
@@ -1894,7 +1894,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134">
@@ -2125,7 +2125,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155">
@@ -2202,7 +2202,7 @@
         <v>159</v>
       </c>
       <c r="C161" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162">
@@ -2367,7 +2367,7 @@
         <v>174</v>
       </c>
       <c r="C176" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177">
@@ -2400,7 +2400,7 @@
         <v>177</v>
       </c>
       <c r="C179" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180">
@@ -2521,7 +2521,7 @@
         <v>188</v>
       </c>
       <c r="C190" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="191">
@@ -2653,7 +2653,7 @@
         <v>200</v>
       </c>
       <c r="C202" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="203">
@@ -2741,7 +2741,7 @@
         <v>208</v>
       </c>
       <c r="C210" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="211">
@@ -3148,7 +3148,7 @@
         <v>245</v>
       </c>
       <c r="C247" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="248">
@@ -3203,7 +3203,7 @@
         <v>250</v>
       </c>
       <c r="C252" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="253">
@@ -3214,7 +3214,7 @@
         <v>251</v>
       </c>
       <c r="C253" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="254">
@@ -3258,7 +3258,7 @@
         <v>255</v>
       </c>
       <c r="C257" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="258">
@@ -3280,7 +3280,7 @@
         <v>257</v>
       </c>
       <c r="C259" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="260">
@@ -3313,7 +3313,7 @@
         <v>260</v>
       </c>
       <c r="C262" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="263">
@@ -3368,7 +3368,7 @@
         <v>265</v>
       </c>
       <c r="C267" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="268">
@@ -3577,7 +3577,7 @@
         <v>284</v>
       </c>
       <c r="C286" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="287">
@@ -3599,7 +3599,7 @@
         <v>286</v>
       </c>
       <c r="C288" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="289">
@@ -3687,7 +3687,7 @@
         <v>294</v>
       </c>
       <c r="C296" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="297">
@@ -3775,7 +3775,7 @@
         <v>302</v>
       </c>
       <c r="C304" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="305">
@@ -3819,7 +3819,7 @@
         <v>306</v>
       </c>
       <c r="C308" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="309">
@@ -3874,7 +3874,7 @@
         <v>311</v>
       </c>
       <c r="C313" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="314">
@@ -3885,7 +3885,7 @@
         <v>312</v>
       </c>
       <c r="C314" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="315">
@@ -3940,7 +3940,7 @@
         <v>317</v>
       </c>
       <c r="C319" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="320">
@@ -3962,7 +3962,7 @@
         <v>319</v>
       </c>
       <c r="C321" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="322">
@@ -3984,7 +3984,7 @@
         <v>321</v>
       </c>
       <c r="C323" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="324">
@@ -4006,7 +4006,7 @@
         <v>323</v>
       </c>
       <c r="C325" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="326">
@@ -4083,7 +4083,7 @@
         <v>330</v>
       </c>
       <c r="C332" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="333">
@@ -4127,7 +4127,7 @@
         <v>334</v>
       </c>
       <c r="C336" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="337">
@@ -4182,7 +4182,7 @@
         <v>339</v>
       </c>
       <c r="C341" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="342">
@@ -4226,7 +4226,7 @@
         <v>343</v>
       </c>
       <c r="C345" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="346">
@@ -4303,7 +4303,7 @@
         <v>350</v>
       </c>
       <c r="C352" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="353">
@@ -4325,7 +4325,7 @@
         <v>352</v>
       </c>
       <c r="C354" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="355">
@@ -4347,7 +4347,7 @@
         <v>354</v>
       </c>
       <c r="C356" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="357">
@@ -4457,7 +4457,7 @@
         <v>364</v>
       </c>
       <c r="C366" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="367">
@@ -4644,7 +4644,7 @@
         <v>381</v>
       </c>
       <c r="C383" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="384">
@@ -4677,7 +4677,7 @@
         <v>384</v>
       </c>
       <c r="C386" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="387">
@@ -4699,7 +4699,7 @@
         <v>386</v>
       </c>
       <c r="C388" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="389">
@@ -4721,7 +4721,7 @@
         <v>388</v>
       </c>
       <c r="C390" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="391">
@@ -4765,7 +4765,7 @@
         <v>392</v>
       </c>
       <c r="C394" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="395">
@@ -4787,7 +4787,7 @@
         <v>394</v>
       </c>
       <c r="C396" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="397">
@@ -4798,7 +4798,7 @@
         <v>395</v>
       </c>
       <c r="C397" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="398">
@@ -4809,7 +4809,7 @@
         <v>396</v>
       </c>
       <c r="C398" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="399">
@@ -4820,7 +4820,7 @@
         <v>397</v>
       </c>
       <c r="C399" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="400">
@@ -4842,7 +4842,7 @@
         <v>399</v>
       </c>
       <c r="C401" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="402">
@@ -4941,7 +4941,7 @@
         <v>408</v>
       </c>
       <c r="C410" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="411">
@@ -4952,7 +4952,7 @@
         <v>409</v>
       </c>
       <c r="C411" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="412">
@@ -4974,7 +4974,7 @@
         <v>411</v>
       </c>
       <c r="C413" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="414">
@@ -5007,7 +5007,7 @@
         <v>414</v>
       </c>
       <c r="C416" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="417">
@@ -5073,7 +5073,7 @@
         <v>420</v>
       </c>
       <c r="C422" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="423">
@@ -5095,7 +5095,7 @@
         <v>422</v>
       </c>
       <c r="C424" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="425">
@@ -5128,7 +5128,7 @@
         <v>425</v>
       </c>
       <c r="C427" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="428">
@@ -5150,7 +5150,7 @@
         <v>427</v>
       </c>
       <c r="C429" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="430">
@@ -5249,7 +5249,7 @@
         <v>436</v>
       </c>
       <c r="C438" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="439">
@@ -5370,7 +5370,7 @@
         <v>447</v>
       </c>
       <c r="C449" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="450">
@@ -5524,7 +5524,7 @@
         <v>461</v>
       </c>
       <c r="C463" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="464">
@@ -5612,7 +5612,7 @@
         <v>469</v>
       </c>
       <c r="C471" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="472">
@@ -5744,7 +5744,7 @@
         <v>481</v>
       </c>
       <c r="C483" t="n">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="484">
@@ -5766,7 +5766,7 @@
         <v>483</v>
       </c>
       <c r="C485" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="486">
@@ -5777,7 +5777,7 @@
         <v>484</v>
       </c>
       <c r="C486" t="n">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="487">
@@ -5821,7 +5821,7 @@
         <v>488</v>
       </c>
       <c r="C490" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="491">
@@ -5865,7 +5865,7 @@
         <v>492</v>
       </c>
       <c r="C494" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="495">
@@ -6030,7 +6030,7 @@
         <v>507</v>
       </c>
       <c r="C509" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="510">
@@ -6052,7 +6052,7 @@
         <v>509</v>
       </c>
       <c r="C511" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="512">
@@ -6085,7 +6085,7 @@
         <v>512</v>
       </c>
       <c r="C514" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="515">
@@ -6107,7 +6107,7 @@
         <v>514</v>
       </c>
       <c r="C516" t="n">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="517">
@@ -6140,7 +6140,7 @@
         <v>517</v>
       </c>
       <c r="C519" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="520">
@@ -6162,7 +6162,7 @@
         <v>519</v>
       </c>
       <c r="C521" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="522">
@@ -6195,7 +6195,7 @@
         <v>522</v>
       </c>
       <c r="C524" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="525">
@@ -6272,7 +6272,7 @@
         <v>529</v>
       </c>
       <c r="C531" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="532">
@@ -6294,7 +6294,7 @@
         <v>531</v>
       </c>
       <c r="C533" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="534">
@@ -6338,7 +6338,7 @@
         <v>535</v>
       </c>
       <c r="C537" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="538">
@@ -6360,7 +6360,7 @@
         <v>537</v>
       </c>
       <c r="C539" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="540">
@@ -6382,7 +6382,7 @@
         <v>539</v>
       </c>
       <c r="C541" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="542">
@@ -6459,7 +6459,7 @@
         <v>546</v>
       </c>
       <c r="C548" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="549">
@@ -6481,7 +6481,7 @@
         <v>548</v>
       </c>
       <c r="C550" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="551">
@@ -6514,7 +6514,7 @@
         <v>551</v>
       </c>
       <c r="C553" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="554">
@@ -6690,7 +6690,7 @@
         <v>567</v>
       </c>
       <c r="C569" t="n">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="570">
@@ -6712,7 +6712,7 @@
         <v>569</v>
       </c>
       <c r="C571" t="n">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="572">
@@ -6734,7 +6734,7 @@
         <v>571</v>
       </c>
       <c r="C573" t="n">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="574">
@@ -6756,7 +6756,7 @@
         <v>573</v>
       </c>
       <c r="C575" t="n">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="576">
@@ -6822,7 +6822,7 @@
         <v>579</v>
       </c>
       <c r="C581" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="582">
@@ -6833,7 +6833,7 @@
         <v>580</v>
       </c>
       <c r="C582" t="n">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="583">
@@ -6921,7 +6921,7 @@
         <v>588</v>
       </c>
       <c r="C590" t="n">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="591">
@@ -7031,7 +7031,7 @@
         <v>598</v>
       </c>
       <c r="C600" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="601">
@@ -7086,7 +7086,7 @@
         <v>603</v>
       </c>
       <c r="C605" t="n">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="606">
@@ -7141,7 +7141,7 @@
         <v>608</v>
       </c>
       <c r="C610" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="611">
@@ -7174,7 +7174,7 @@
         <v>611</v>
       </c>
       <c r="C613" t="n">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="614">
@@ -7185,7 +7185,7 @@
         <v>612</v>
       </c>
       <c r="C614" t="n">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="615">
@@ -7240,7 +7240,7 @@
         <v>617</v>
       </c>
       <c r="C619" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="620">
@@ -7262,7 +7262,7 @@
         <v>619</v>
       </c>
       <c r="C621" t="n">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="622">
@@ -7295,7 +7295,7 @@
         <v>622</v>
       </c>
       <c r="C624" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="625">
@@ -7383,7 +7383,7 @@
         <v>630</v>
       </c>
       <c r="C632" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="633">
@@ -7427,7 +7427,7 @@
         <v>634</v>
       </c>
       <c r="C636" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="637">
@@ -7471,7 +7471,7 @@
         <v>638</v>
       </c>
       <c r="C640" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="641">
@@ -7515,7 +7515,7 @@
         <v>642</v>
       </c>
       <c r="C644" t="n">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="645">
@@ -7548,7 +7548,7 @@
         <v>645</v>
       </c>
       <c r="C647" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="648">
@@ -7559,7 +7559,7 @@
         <v>646</v>
       </c>
       <c r="C648" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="649">
@@ -7647,7 +7647,7 @@
         <v>662</v>
       </c>
       <c r="C656" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="657">
@@ -7669,7 +7669,7 @@
         <v>664</v>
       </c>
       <c r="C658" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="659">
@@ -7691,7 +7691,7 @@
         <v>666</v>
       </c>
       <c r="C660" t="n">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="661">
@@ -7724,7 +7724,7 @@
         <v>669</v>
       </c>
       <c r="C663" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="664">
@@ -7768,7 +7768,7 @@
         <v>673</v>
       </c>
       <c r="C667" t="n">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="668">
@@ -7801,7 +7801,7 @@
         <v>676</v>
       </c>
       <c r="C670" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="671">
@@ -7856,7 +7856,7 @@
         <v>681</v>
       </c>
       <c r="C675" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="676">
@@ -7889,7 +7889,7 @@
         <v>685</v>
       </c>
       <c r="C678" t="n">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="679">
@@ -7911,7 +7911,7 @@
         <v>687</v>
       </c>
       <c r="C680" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="681">
@@ -7966,7 +7966,7 @@
         <v>692</v>
       </c>
       <c r="C685" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="686">
@@ -8010,7 +8010,7 @@
         <v>697</v>
       </c>
       <c r="C689" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="690">
@@ -8043,7 +8043,7 @@
         <v>700</v>
       </c>
       <c r="C692" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="693">
@@ -8109,7 +8109,7 @@
         <v>706</v>
       </c>
       <c r="C698" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="699">
@@ -8120,7 +8120,7 @@
         <v>707</v>
       </c>
       <c r="C699" t="n">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="700">
@@ -8131,7 +8131,7 @@
         <v>708</v>
       </c>
       <c r="C700" t="n">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="701">
@@ -8153,7 +8153,7 @@
         <v>710</v>
       </c>
       <c r="C702" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="703">
@@ -8274,7 +8274,7 @@
         <v>721</v>
       </c>
       <c r="C713" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="714">
@@ -8285,7 +8285,7 @@
         <v>722</v>
       </c>
       <c r="C714" t="n">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="715">
@@ -8296,7 +8296,7 @@
         <v>723</v>
       </c>
       <c r="C715" t="n">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="716">
@@ -8307,7 +8307,7 @@
         <v>724</v>
       </c>
       <c r="C716" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="717">
@@ -8318,7 +8318,7 @@
         <v>725</v>
       </c>
       <c r="C717" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="718">
@@ -8329,7 +8329,7 @@
         <v>726</v>
       </c>
       <c r="C718" t="n">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="719">
@@ -8384,7 +8384,7 @@
         <v>731</v>
       </c>
       <c r="C723" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="724">
@@ -8428,7 +8428,7 @@
         <v>735</v>
       </c>
       <c r="C727" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="728">
@@ -8747,7 +8747,7 @@
         <v>769</v>
       </c>
       <c r="C756" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="757">
@@ -8769,7 +8769,7 @@
         <v>771</v>
       </c>
       <c r="C758" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="759">
@@ -8791,7 +8791,7 @@
         <v>773</v>
       </c>
       <c r="C760" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="761">
@@ -8802,7 +8802,7 @@
         <v>774</v>
       </c>
       <c r="C761" t="n">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="762">
@@ -8813,7 +8813,7 @@
         <v>775</v>
       </c>
       <c r="C762" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="763">
@@ -8857,7 +8857,7 @@
         <v>779</v>
       </c>
       <c r="C766" t="n">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="767">
@@ -9000,7 +9000,7 @@
         <v>792</v>
       </c>
       <c r="C779" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="780">
@@ -9044,7 +9044,7 @@
         <v>796</v>
       </c>
       <c r="C783" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="784">
@@ -9473,7 +9473,7 @@
         <v>835</v>
       </c>
       <c r="C822" t="n">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="823">
@@ -9506,7 +9506,7 @@
         <v>838</v>
       </c>
       <c r="C825" t="n">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="826">
@@ -9528,7 +9528,7 @@
         <v>840</v>
       </c>
       <c r="C827" t="n">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="828">
@@ -9550,7 +9550,7 @@
         <v>842</v>
       </c>
       <c r="C829" t="n">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="830">
@@ -9605,7 +9605,7 @@
         <v>847</v>
       </c>
       <c r="C834" t="n">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="835">
@@ -9671,7 +9671,7 @@
         <v>853</v>
       </c>
       <c r="C840" t="n">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="841">
@@ -9770,7 +9770,7 @@
         <v>862</v>
       </c>
       <c r="C849" t="n">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="850">
@@ -9880,7 +9880,7 @@
         <v>872</v>
       </c>
       <c r="C859" t="n">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="860">
@@ -10012,7 +10012,7 @@
         <v>884</v>
       </c>
       <c r="C871" t="n">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="872">
@@ -10056,7 +10056,7 @@
         <v>888</v>
       </c>
       <c r="C875" t="n">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="876">
@@ -10133,7 +10133,7 @@
         <v>895</v>
       </c>
       <c r="C882" t="n">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="883">
@@ -10144,7 +10144,7 @@
         <v>896</v>
       </c>
       <c r="C883" t="n">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="884">
@@ -10177,7 +10177,7 @@
         <v>899</v>
       </c>
       <c r="C886" t="n">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="887">
@@ -10265,7 +10265,7 @@
         <v>907</v>
       </c>
       <c r="C894" t="n">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="895">
@@ -10331,7 +10331,7 @@
         <v>913</v>
       </c>
       <c r="C900" t="n">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="901">
@@ -10342,7 +10342,7 @@
         <v>914</v>
       </c>
       <c r="C901" t="n">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="902">
@@ -10353,7 +10353,7 @@
         <v>915</v>
       </c>
       <c r="C902" t="n">
-        <v>1097</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="903">
@@ -10375,7 +10375,7 @@
         <v>917</v>
       </c>
       <c r="C904" t="n">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="905">
@@ -10408,7 +10408,7 @@
         <v>920</v>
       </c>
       <c r="C907" t="n">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="908">
@@ -10430,7 +10430,7 @@
         <v>922</v>
       </c>
       <c r="C909" t="n">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="910">
@@ -10452,7 +10452,7 @@
         <v>924</v>
       </c>
       <c r="C911" t="n">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="912">
@@ -10463,7 +10463,7 @@
         <v>925</v>
       </c>
       <c r="C912" t="n">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="913">
@@ -10474,7 +10474,7 @@
         <v>926</v>
       </c>
       <c r="C913" t="n">
-        <v>1183</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="914">
@@ -10496,7 +10496,7 @@
         <v>928</v>
       </c>
       <c r="C915" t="n">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="916">
@@ -10518,7 +10518,7 @@
         <v>930</v>
       </c>
       <c r="C917" t="n">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="918">
@@ -10529,7 +10529,7 @@
         <v>931</v>
       </c>
       <c r="C918" t="n">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="919">
@@ -10540,7 +10540,7 @@
         <v>932</v>
       </c>
       <c r="C919" t="n">
-        <v>1101</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="920">
@@ -10562,7 +10562,7 @@
         <v>934</v>
       </c>
       <c r="C921" t="n">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="922">
@@ -10584,7 +10584,7 @@
         <v>936</v>
       </c>
       <c r="C923" t="n">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="924">
@@ -10606,7 +10606,7 @@
         <v>938</v>
       </c>
       <c r="C925" t="n">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="926">
@@ -10628,7 +10628,7 @@
         <v>940</v>
       </c>
       <c r="C927" t="n">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="928">
@@ -10661,7 +10661,7 @@
         <v>943</v>
       </c>
       <c r="C930" t="n">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="931">
@@ -10683,7 +10683,7 @@
         <v>945</v>
       </c>
       <c r="C932" t="n">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="933">
@@ -10749,7 +10749,7 @@
         <v>951</v>
       </c>
       <c r="C938" t="n">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="939">
@@ -10815,7 +10815,7 @@
         <v>957</v>
       </c>
       <c r="C944" t="n">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="945">
@@ -10881,7 +10881,7 @@
         <v>963</v>
       </c>
       <c r="C950" t="n">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="951">
@@ -11024,7 +11024,7 @@
         <v>976</v>
       </c>
       <c r="C963" t="n">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="964">
@@ -11079,7 +11079,7 @@
         <v>981</v>
       </c>
       <c r="C968" t="n">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="969">
@@ -11101,7 +11101,7 @@
         <v>983</v>
       </c>
       <c r="C970" t="n">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="971">
@@ -11255,7 +11255,7 @@
         <v>997</v>
       </c>
       <c r="C984" t="n">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="985">
@@ -11277,7 +11277,7 @@
         <v>999</v>
       </c>
       <c r="C986" t="n">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="987">
@@ -11629,7 +11629,7 @@
         <v>1031</v>
       </c>
       <c r="C1018" t="n">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1019">
@@ -11673,7 +11673,7 @@
         <v>1035</v>
       </c>
       <c r="C1022" t="n">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1023">
@@ -11717,7 +11717,7 @@
         <v>1039</v>
       </c>
       <c r="C1026" t="n">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1027">
@@ -11838,7 +11838,7 @@
         <v>1050</v>
       </c>
       <c r="C1037" t="n">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1038">
@@ -11981,7 +11981,7 @@
         <v>1063</v>
       </c>
       <c r="C1050" t="n">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1051">
@@ -12003,7 +12003,7 @@
         <v>1065</v>
       </c>
       <c r="C1052" t="n">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1053">
@@ -12014,7 +12014,7 @@
         <v>1066</v>
       </c>
       <c r="C1053" t="n">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1054">
@@ -12036,7 +12036,7 @@
         <v>1068</v>
       </c>
       <c r="C1055" t="n">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1056">
@@ -12102,7 +12102,7 @@
         <v>1074</v>
       </c>
       <c r="C1061" t="n">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1062">
@@ -12124,7 +12124,7 @@
         <v>1076</v>
       </c>
       <c r="C1063" t="n">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1064">
@@ -12157,7 +12157,7 @@
         <v>1079</v>
       </c>
       <c r="C1066" t="n">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1067">
@@ -12223,7 +12223,7 @@
         <v>1085</v>
       </c>
       <c r="C1072" t="n">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1073">
@@ -14423,7 +14423,7 @@
         <v>1285</v>
       </c>
       <c r="C1272" t="n">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1273">
@@ -14434,7 +14434,7 @@
         <v>1286</v>
       </c>
       <c r="C1273" t="n">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1274">
@@ -14445,7 +14445,7 @@
         <v>1287</v>
       </c>
       <c r="C1274" t="n">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1275">
@@ -14489,7 +14489,7 @@
         <v>1291</v>
       </c>
       <c r="C1278" t="n">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1279">
@@ -14500,7 +14500,7 @@
         <v>1292</v>
       </c>
       <c r="C1279" t="n">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1280">
@@ -14511,7 +14511,7 @@
         <v>1293</v>
       </c>
       <c r="C1280" t="n">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1281">
@@ -14522,7 +14522,7 @@
         <v>1294</v>
       </c>
       <c r="C1281" t="n">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1282">
@@ -14533,7 +14533,7 @@
         <v>1295</v>
       </c>
       <c r="C1282" t="n">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1283">
@@ -14544,7 +14544,7 @@
         <v>1296</v>
       </c>
       <c r="C1283" t="n">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1284">
@@ -14555,7 +14555,7 @@
         <v>1297</v>
       </c>
       <c r="C1284" t="n">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1285">
@@ -14566,7 +14566,7 @@
         <v>1298</v>
       </c>
       <c r="C1285" t="n">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1286">
@@ -14577,7 +14577,7 @@
         <v>1299</v>
       </c>
       <c r="C1286" t="n">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1287">
@@ -14588,7 +14588,7 @@
         <v>1300</v>
       </c>
       <c r="C1287" t="n">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1288">
@@ -14599,7 +14599,7 @@
         <v>1301</v>
       </c>
       <c r="C1288" t="n">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1289">
@@ -14610,7 +14610,7 @@
         <v>1302</v>
       </c>
       <c r="C1289" t="n">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1290">
@@ -14621,7 +14621,7 @@
         <v>1303</v>
       </c>
       <c r="C1290" t="n">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1291">
@@ -14665,7 +14665,7 @@
         <v>1307</v>
       </c>
       <c r="C1294" t="n">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1295">
@@ -14676,7 +14676,7 @@
         <v>1308</v>
       </c>
       <c r="C1295" t="n">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1296">
@@ -14687,7 +14687,7 @@
         <v>1309</v>
       </c>
       <c r="C1296" t="n">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1297">
@@ -14698,7 +14698,7 @@
         <v>1310</v>
       </c>
       <c r="C1297" t="n">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1298">
@@ -14709,7 +14709,7 @@
         <v>1311</v>
       </c>
       <c r="C1298" t="n">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1299">
@@ -14731,7 +14731,7 @@
         <v>1313</v>
       </c>
       <c r="C1300" t="n">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1301">
@@ -14742,7 +14742,7 @@
         <v>1314</v>
       </c>
       <c r="C1301" t="n">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1302">
@@ -14764,7 +14764,7 @@
         <v>1316</v>
       </c>
       <c r="C1303" t="n">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1304">
@@ -14775,7 +14775,7 @@
         <v>1317</v>
       </c>
       <c r="C1304" t="n">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1305">
@@ -14786,7 +14786,7 @@
         <v>1318</v>
       </c>
       <c r="C1305" t="n">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1306">
@@ -14797,7 +14797,7 @@
         <v>1319</v>
       </c>
       <c r="C1306" t="n">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1307">
@@ -14808,7 +14808,7 @@
         <v>1320</v>
       </c>
       <c r="C1307" t="n">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1308">
@@ -14819,7 +14819,7 @@
         <v>1321</v>
       </c>
       <c r="C1308" t="n">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1309">
@@ -14830,7 +14830,7 @@
         <v>1322</v>
       </c>
       <c r="C1309" t="n">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1310">
@@ -14841,7 +14841,7 @@
         <v>1323</v>
       </c>
       <c r="C1310" t="n">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1311">
@@ -14852,7 +14852,7 @@
         <v>1324</v>
       </c>
       <c r="C1311" t="n">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1312">
@@ -14863,7 +14863,7 @@
         <v>1325</v>
       </c>
       <c r="C1312" t="n">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1313">
@@ -14874,7 +14874,7 @@
         <v>1326</v>
       </c>
       <c r="C1313" t="n">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1314">
@@ -14885,7 +14885,7 @@
         <v>1327</v>
       </c>
       <c r="C1314" t="n">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1315">
@@ -14896,7 +14896,7 @@
         <v>1328</v>
       </c>
       <c r="C1315" t="n">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1316">
@@ -14907,7 +14907,7 @@
         <v>1329</v>
       </c>
       <c r="C1316" t="n">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1317">
@@ -14918,7 +14918,7 @@
         <v>1330</v>
       </c>
       <c r="C1317" t="n">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1318">
@@ -14929,7 +14929,7 @@
         <v>1331</v>
       </c>
       <c r="C1318" t="n">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1319">
@@ -14940,7 +14940,7 @@
         <v>1332</v>
       </c>
       <c r="C1319" t="n">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1320">
@@ -14951,7 +14951,7 @@
         <v>1333</v>
       </c>
       <c r="C1320" t="n">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1321">
@@ -14962,7 +14962,7 @@
         <v>1334</v>
       </c>
       <c r="C1321" t="n">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1322">
@@ -14973,7 +14973,7 @@
         <v>1335</v>
       </c>
       <c r="C1322" t="n">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1323">
@@ -14984,7 +14984,7 @@
         <v>1336</v>
       </c>
       <c r="C1323" t="n">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1324">
@@ -14995,7 +14995,7 @@
         <v>1337</v>
       </c>
       <c r="C1324" t="n">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1325">
@@ -15006,7 +15006,7 @@
         <v>1338</v>
       </c>
       <c r="C1325" t="n">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1326">
@@ -15017,7 +15017,7 @@
         <v>1339</v>
       </c>
       <c r="C1326" t="n">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1327">
@@ -15028,7 +15028,7 @@
         <v>1340</v>
       </c>
       <c r="C1327" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1328">
@@ -15050,7 +15050,7 @@
         <v>1342</v>
       </c>
       <c r="C1329" t="n">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1330">
@@ -15072,7 +15072,7 @@
         <v>1344</v>
       </c>
       <c r="C1331" t="n">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1332">
@@ -15083,7 +15083,7 @@
         <v>1345</v>
       </c>
       <c r="C1332" t="n">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1333">
@@ -15094,7 +15094,7 @@
         <v>1346</v>
       </c>
       <c r="C1333" t="n">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1334">
@@ -15105,7 +15105,7 @@
         <v>1347</v>
       </c>
       <c r="C1334" t="n">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1335">
@@ -15116,7 +15116,7 @@
         <v>1348</v>
       </c>
       <c r="C1335" t="n">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1336">
@@ -15127,7 +15127,7 @@
         <v>1349</v>
       </c>
       <c r="C1336" t="n">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1337">
@@ -15149,7 +15149,7 @@
         <v>1351</v>
       </c>
       <c r="C1338" t="n">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1339">
@@ -15160,7 +15160,7 @@
         <v>1352</v>
       </c>
       <c r="C1339" t="n">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1340">
@@ -15182,7 +15182,7 @@
         <v>1354</v>
       </c>
       <c r="C1341" t="n">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1342">
@@ -15193,7 +15193,7 @@
         <v>1355</v>
       </c>
       <c r="C1342" t="n">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1343">
@@ -15204,7 +15204,7 @@
         <v>1356</v>
       </c>
       <c r="C1343" t="n">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1344">
@@ -15215,7 +15215,7 @@
         <v>1357</v>
       </c>
       <c r="C1344" t="n">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1345">
@@ -15226,7 +15226,7 @@
         <v>1358</v>
       </c>
       <c r="C1345" t="n">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1346">
@@ -15248,7 +15248,7 @@
         <v>1360</v>
       </c>
       <c r="C1347" t="n">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1348">
@@ -15259,7 +15259,7 @@
         <v>1361</v>
       </c>
       <c r="C1348" t="n">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1349">
@@ -15270,7 +15270,7 @@
         <v>1362</v>
       </c>
       <c r="C1349" t="n">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1350">
@@ -15281,7 +15281,7 @@
         <v>1363</v>
       </c>
       <c r="C1350" t="n">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1351">
@@ -15303,7 +15303,7 @@
         <v>1365</v>
       </c>
       <c r="C1352" t="n">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1353">
@@ -15314,7 +15314,7 @@
         <v>1366</v>
       </c>
       <c r="C1353" t="n">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1354">
@@ -15325,7 +15325,7 @@
         <v>1367</v>
       </c>
       <c r="C1354" t="n">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1355">
@@ -15358,7 +15358,7 @@
         <v>1370</v>
       </c>
       <c r="C1357" t="n">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1358">
@@ -15369,7 +15369,7 @@
         <v>1371</v>
       </c>
       <c r="C1358" t="n">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1359">
@@ -15380,7 +15380,7 @@
         <v>1372</v>
       </c>
       <c r="C1359" t="n">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1360">
@@ -15391,7 +15391,7 @@
         <v>1373</v>
       </c>
       <c r="C1360" t="n">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1361">
@@ -15402,7 +15402,7 @@
         <v>1374</v>
       </c>
       <c r="C1361" t="n">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1362">
@@ -15424,7 +15424,7 @@
         <v>1376</v>
       </c>
       <c r="C1363" t="n">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1364">
@@ -15435,7 +15435,7 @@
         <v>1377</v>
       </c>
       <c r="C1364" t="n">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1365">
@@ -15446,7 +15446,7 @@
         <v>1378</v>
       </c>
       <c r="C1365" t="n">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1366">
@@ -15457,7 +15457,7 @@
         <v>1379</v>
       </c>
       <c r="C1366" t="n">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1367">
@@ -15468,7 +15468,7 @@
         <v>1380</v>
       </c>
       <c r="C1367" t="n">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1368">
@@ -15479,7 +15479,7 @@
         <v>1381</v>
       </c>
       <c r="C1368" t="n">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1369">
@@ -15490,7 +15490,7 @@
         <v>1382</v>
       </c>
       <c r="C1369" t="n">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1370">
@@ -15512,7 +15512,7 @@
         <v>1384</v>
       </c>
       <c r="C1371" t="n">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1372">
@@ -15523,7 +15523,7 @@
         <v>1385</v>
       </c>
       <c r="C1372" t="n">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1373">
@@ -15534,7 +15534,7 @@
         <v>1386</v>
       </c>
       <c r="C1373" t="n">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1374">
@@ -15545,7 +15545,7 @@
         <v>1387</v>
       </c>
       <c r="C1374" t="n">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1375">
@@ -15556,7 +15556,7 @@
         <v>1388</v>
       </c>
       <c r="C1375" t="n">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1376">
@@ -15567,7 +15567,7 @@
         <v>1389</v>
       </c>
       <c r="C1376" t="n">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1377">
@@ -15578,7 +15578,7 @@
         <v>1390</v>
       </c>
       <c r="C1377" t="n">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1378">
@@ -15589,7 +15589,7 @@
         <v>1391</v>
       </c>
       <c r="C1378" t="n">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1379">
@@ -15600,7 +15600,7 @@
         <v>1392</v>
       </c>
       <c r="C1379" t="n">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1380">
@@ -15611,7 +15611,7 @@
         <v>1393</v>
       </c>
       <c r="C1380" t="n">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1381">
@@ -15622,7 +15622,7 @@
         <v>1394</v>
       </c>
       <c r="C1381" t="n">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1382">
@@ -15633,7 +15633,7 @@
         <v>1395</v>
       </c>
       <c r="C1382" t="n">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1383">
@@ -15644,7 +15644,7 @@
         <v>1396</v>
       </c>
       <c r="C1383" t="n">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1384">
@@ -15655,7 +15655,7 @@
         <v>1397</v>
       </c>
       <c r="C1384" t="n">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1385">
@@ -15666,7 +15666,7 @@
         <v>1398</v>
       </c>
       <c r="C1385" t="n">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1386">
@@ -15677,7 +15677,7 @@
         <v>1399</v>
       </c>
       <c r="C1386" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1387">
@@ -15688,7 +15688,7 @@
         <v>1400</v>
       </c>
       <c r="C1387" t="n">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1388">
@@ -15699,7 +15699,7 @@
         <v>1401</v>
       </c>
       <c r="C1388" t="n">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1389">
@@ -15710,7 +15710,7 @@
         <v>1402</v>
       </c>
       <c r="C1389" t="n">
-        <v>1385</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1390">
@@ -15721,7 +15721,7 @@
         <v>1403</v>
       </c>
       <c r="C1390" t="n">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1391">
@@ -15732,7 +15732,7 @@
         <v>1404</v>
       </c>
       <c r="C1391" t="n">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1392">
@@ -15743,7 +15743,7 @@
         <v>1405</v>
       </c>
       <c r="C1392" t="n">
-        <v>1595</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1393">
@@ -15754,7 +15754,7 @@
         <v>1406</v>
       </c>
       <c r="C1393" t="n">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1394">
@@ -15765,7 +15765,7 @@
         <v>1407</v>
       </c>
       <c r="C1394" t="n">
-        <v>1792</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1395">
@@ -15776,7 +15776,7 @@
         <v>1408</v>
       </c>
       <c r="C1395" t="n">
-        <v>1738</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1396">
@@ -15787,7 +15787,7 @@
         <v>1409</v>
       </c>
       <c r="C1396" t="n">
-        <v>1615</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1397">
@@ -15798,7 +15798,7 @@
         <v>1410</v>
       </c>
       <c r="C1397" t="n">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1398">
@@ -15809,7 +15809,7 @@
         <v>1411</v>
       </c>
       <c r="C1398" t="n">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1399">
@@ -15820,7 +15820,7 @@
         <v>1412</v>
       </c>
       <c r="C1399" t="n">
-        <v>1945</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1400">
@@ -15831,7 +15831,7 @@
         <v>1413</v>
       </c>
       <c r="C1400" t="n">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1401">
@@ -15842,7 +15842,7 @@
         <v>1414</v>
       </c>
       <c r="C1401" t="n">
-        <v>1343</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1402">
@@ -15853,7 +15853,7 @@
         <v>1415</v>
       </c>
       <c r="C1402" t="n">
-        <v>1633</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1403">
@@ -15864,7 +15864,7 @@
         <v>1416</v>
       </c>
       <c r="C1403" t="n">
-        <v>1595</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1404">
@@ -15875,7 +15875,7 @@
         <v>1417</v>
       </c>
       <c r="C1404" t="n">
-        <v>1945</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1405">
@@ -15886,7 +15886,7 @@
         <v>1418</v>
       </c>
       <c r="C1405" t="n">
-        <v>1410</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1406">
@@ -15908,7 +15908,7 @@
         <v>1420</v>
       </c>
       <c r="C1407" t="n">
-        <v>1343</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1408">
@@ -15919,7 +15919,7 @@
         <v>1421</v>
       </c>
       <c r="C1408" t="n">
-        <v>1343</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1409">
@@ -16205,7 +16205,7 @@
         <v>1448</v>
       </c>
       <c r="C1434" t="n">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1435">
@@ -16293,7 +16293,7 @@
         <v>1457</v>
       </c>
       <c r="C1442" t="n">
-        <v>1419</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1443">
@@ -18108,7 +18108,7 @@
         <v>1627</v>
       </c>
       <c r="C1607" t="n">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1608">
@@ -18361,7 +18361,7 @@
         <v>1652</v>
       </c>
       <c r="C1630" t="n">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1631">
@@ -20286,7 +20286,7 @@
         <v>1832</v>
       </c>
       <c r="C1805" t="n">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1806">
@@ -20737,7 +20737,7 @@
         <v>1874</v>
       </c>
       <c r="C1846" t="n">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1847">
@@ -20836,7 +20836,7 @@
         <v>1883</v>
       </c>
       <c r="C1855" t="n">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1856">
@@ -20935,7 +20935,7 @@
         <v>1892</v>
       </c>
       <c r="C1864" t="n">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1865">
@@ -20946,7 +20946,7 @@
         <v>1893</v>
       </c>
       <c r="C1865" t="n">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1866">
@@ -20957,7 +20957,7 @@
         <v>1894</v>
       </c>
       <c r="C1866" t="n">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1867">
@@ -20979,7 +20979,7 @@
         <v>1896</v>
       </c>
       <c r="C1868" t="n">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1869">
@@ -20990,7 +20990,7 @@
         <v>1897</v>
       </c>
       <c r="C1869" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1870">
@@ -21001,7 +21001,7 @@
         <v>1898</v>
       </c>
       <c r="C1870" t="n">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1871">
@@ -21012,7 +21012,7 @@
         <v>1899</v>
       </c>
       <c r="C1871" t="n">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1872">
@@ -21034,7 +21034,7 @@
         <v>1901</v>
       </c>
       <c r="C1873" t="n">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1874">
@@ -21056,7 +21056,7 @@
         <v>1903</v>
       </c>
       <c r="C1875" t="n">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1876">
@@ -21067,7 +21067,7 @@
         <v>1904</v>
       </c>
       <c r="C1876" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1877">
@@ -21078,7 +21078,7 @@
         <v>1905</v>
       </c>
       <c r="C1877" t="n">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1878">
@@ -21089,7 +21089,7 @@
         <v>1906</v>
       </c>
       <c r="C1878" t="n">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1879">
@@ -21100,7 +21100,7 @@
         <v>1907</v>
       </c>
       <c r="C1879" t="n">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1880">
@@ -21111,7 +21111,7 @@
         <v>1908</v>
       </c>
       <c r="C1880" t="n">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1881">
@@ -21122,7 +21122,7 @@
         <v>1909</v>
       </c>
       <c r="C1881" t="n">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1882">
@@ -21133,7 +21133,7 @@
         <v>1910</v>
       </c>
       <c r="C1882" t="n">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1883">
@@ -21144,7 +21144,7 @@
         <v>1911</v>
       </c>
       <c r="C1883" t="n">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1884">
@@ -21155,7 +21155,7 @@
         <v>1912</v>
       </c>
       <c r="C1884" t="n">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1885">
@@ -21166,7 +21166,7 @@
         <v>1913</v>
       </c>
       <c r="C1885" t="n">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1886">
@@ -21177,7 +21177,7 @@
         <v>1914</v>
       </c>
       <c r="C1886" t="n">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1887">
@@ -21188,7 +21188,7 @@
         <v>1915</v>
       </c>
       <c r="C1887" t="n">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1888">
@@ -21199,7 +21199,7 @@
         <v>1916</v>
       </c>
       <c r="C1888" t="n">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1889">
@@ -21210,7 +21210,7 @@
         <v>1917</v>
       </c>
       <c r="C1889" t="n">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1890">
@@ -21221,7 +21221,7 @@
         <v>1918</v>
       </c>
       <c r="C1890" t="n">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1891">
@@ -21243,7 +21243,7 @@
         <v>1920</v>
       </c>
       <c r="C1892" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1893">
@@ -21254,7 +21254,7 @@
         <v>1921</v>
       </c>
       <c r="C1893" t="n">
-        <v>2079</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1894">
@@ -21265,7 +21265,7 @@
         <v>1922</v>
       </c>
       <c r="C1894" t="n">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1895">
@@ -21276,7 +21276,7 @@
         <v>1923</v>
       </c>
       <c r="C1895" t="n">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1896">
@@ -21287,7 +21287,7 @@
         <v>1924</v>
       </c>
       <c r="C1896" t="n">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1897">
@@ -21298,7 +21298,7 @@
         <v>1925</v>
       </c>
       <c r="C1897" t="n">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1898">
@@ -21309,7 +21309,7 @@
         <v>1926</v>
       </c>
       <c r="C1898" t="n">
-        <v>2137</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1899">
@@ -21320,7 +21320,7 @@
         <v>1927</v>
       </c>
       <c r="C1899" t="n">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1900">
@@ -21331,7 +21331,7 @@
         <v>1928</v>
       </c>
       <c r="C1900" t="n">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1901">
@@ -21342,7 +21342,7 @@
         <v>1929</v>
       </c>
       <c r="C1901" t="n">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1902">
@@ -21353,7 +21353,7 @@
         <v>1930</v>
       </c>
       <c r="C1902" t="n">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1903">
@@ -21364,7 +21364,7 @@
         <v>1931</v>
       </c>
       <c r="C1903" t="n">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1904">
@@ -21375,7 +21375,7 @@
         <v>1932</v>
       </c>
       <c r="C1904" t="n">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1905">
@@ -21386,7 +21386,7 @@
         <v>1933</v>
       </c>
       <c r="C1905" t="n">
-        <v>2158</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1906">
@@ -21397,7 +21397,7 @@
         <v>1934</v>
       </c>
       <c r="C1906" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1907">
@@ -21408,7 +21408,7 @@
         <v>1935</v>
       </c>
       <c r="C1907" t="n">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1908">
@@ -21419,7 +21419,7 @@
         <v>1936</v>
       </c>
       <c r="C1908" t="n">
-        <v>2060</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1909">
@@ -21441,7 +21441,7 @@
         <v>1938</v>
       </c>
       <c r="C1910" t="n">
-        <v>2181</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1911">
@@ -21452,7 +21452,7 @@
         <v>1939</v>
       </c>
       <c r="C1911" t="n">
-        <v>2161</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1912">
@@ -21463,7 +21463,7 @@
         <v>1940</v>
       </c>
       <c r="C1912" t="n">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1913">
@@ -21474,7 +21474,7 @@
         <v>1941</v>
       </c>
       <c r="C1913" t="n">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1914">
@@ -21485,7 +21485,7 @@
         <v>1942</v>
       </c>
       <c r="C1914" t="n">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1915">
@@ -21496,7 +21496,7 @@
         <v>1944</v>
       </c>
       <c r="C1915" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1916">
@@ -21518,7 +21518,7 @@
         <v>1946</v>
       </c>
       <c r="C1917" t="n">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1918">
@@ -21529,7 +21529,7 @@
         <v>1947</v>
       </c>
       <c r="C1918" t="n">
-        <v>2140</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1919">
@@ -21540,7 +21540,7 @@
         <v>1948</v>
       </c>
       <c r="C1919" t="n">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1920">
@@ -21562,7 +21562,7 @@
         <v>1950</v>
       </c>
       <c r="C1921" t="n">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1922">
@@ -21573,7 +21573,7 @@
         <v>1951</v>
       </c>
       <c r="C1922" t="n">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1923">
@@ -21595,7 +21595,7 @@
         <v>1953</v>
       </c>
       <c r="C1924" t="n">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1925">
@@ -21617,7 +21617,7 @@
         <v>1955</v>
       </c>
       <c r="C1926" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1927">
@@ -21628,7 +21628,7 @@
         <v>1956</v>
       </c>
       <c r="C1927" t="n">
-        <v>2199</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1928">
@@ -21639,7 +21639,7 @@
         <v>1957</v>
       </c>
       <c r="C1928" t="n">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1929">
@@ -21650,7 +21650,7 @@
         <v>1958</v>
       </c>
       <c r="C1929" t="n">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1930">
@@ -21661,7 +21661,7 @@
         <v>1959</v>
       </c>
       <c r="C1930" t="n">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1931">
@@ -21672,7 +21672,7 @@
         <v>1960</v>
       </c>
       <c r="C1931" t="n">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1932">
@@ -21683,7 +21683,7 @@
         <v>1961</v>
       </c>
       <c r="C1932" t="n">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1933">
@@ -21694,7 +21694,7 @@
         <v>1962</v>
       </c>
       <c r="C1933" t="n">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1934">
@@ -21705,7 +21705,7 @@
         <v>1963</v>
       </c>
       <c r="C1934" t="n">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1935">
@@ -21716,7 +21716,7 @@
         <v>1964</v>
       </c>
       <c r="C1935" t="n">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1936">
@@ -21727,7 +21727,7 @@
         <v>1965</v>
       </c>
       <c r="C1936" t="n">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1937">
@@ -21738,7 +21738,7 @@
         <v>1966</v>
       </c>
       <c r="C1937" t="n">
-        <v>2126</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1938">
@@ -21749,7 +21749,7 @@
         <v>1967</v>
       </c>
       <c r="C1938" t="n">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1939">
@@ -21760,7 +21760,7 @@
         <v>1968</v>
       </c>
       <c r="C1939" t="n">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1940">
@@ -21771,7 +21771,7 @@
         <v>1969</v>
       </c>
       <c r="C1940" t="n">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1941">
@@ -21782,7 +21782,7 @@
         <v>1970</v>
       </c>
       <c r="C1941" t="n">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1942">
@@ -21793,7 +21793,7 @@
         <v>1971</v>
       </c>
       <c r="C1942" t="n">
-        <v>2204</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1943">
@@ -21804,7 +21804,7 @@
         <v>1972</v>
       </c>
       <c r="C1943" t="n">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1944">
@@ -21815,7 +21815,7 @@
         <v>1973</v>
       </c>
       <c r="C1944" t="n">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1945">
@@ -21826,7 +21826,7 @@
         <v>1974</v>
       </c>
       <c r="C1945" t="n">
-        <v>2176</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1946">
@@ -21837,7 +21837,7 @@
         <v>1975</v>
       </c>
       <c r="C1946" t="n">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1947">
@@ -21848,7 +21848,7 @@
         <v>1976</v>
       </c>
       <c r="C1947" t="n">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1948">
@@ -21881,7 +21881,7 @@
         <v>1979</v>
       </c>
       <c r="C1950" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1951">
@@ -21903,7 +21903,7 @@
         <v>1981</v>
       </c>
       <c r="C1952" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1953">
@@ -21925,7 +21925,7 @@
         <v>1983</v>
       </c>
       <c r="C1954" t="n">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1955">
@@ -21936,7 +21936,7 @@
         <v>1984</v>
       </c>
       <c r="C1955" t="n">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1956">
@@ -21947,7 +21947,7 @@
         <v>1985</v>
       </c>
       <c r="C1956" t="n">
-        <v>2172</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1957">
@@ -21958,7 +21958,7 @@
         <v>1986</v>
       </c>
       <c r="C1957" t="n">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1958">
@@ -21969,7 +21969,7 @@
         <v>1987</v>
       </c>
       <c r="C1958" t="n">
-        <v>1795</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1959">
@@ -21980,7 +21980,7 @@
         <v>1988</v>
       </c>
       <c r="C1959" t="n">
-        <v>1348</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1960">
@@ -21991,7 +21991,7 @@
         <v>1989</v>
       </c>
       <c r="C1960" t="n">
-        <v>1805</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1961">
@@ -22002,7 +22002,7 @@
         <v>1990</v>
       </c>
       <c r="C1961" t="n">
-        <v>1693</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1962">
@@ -22013,7 +22013,7 @@
         <v>1991</v>
       </c>
       <c r="C1962" t="n">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1963">
@@ -22024,7 +22024,7 @@
         <v>1992</v>
       </c>
       <c r="C1963" t="n">
-        <v>1785</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1964">
@@ -22035,7 +22035,7 @@
         <v>1993</v>
       </c>
       <c r="C1964" t="n">
-        <v>1456</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1965">
@@ -22057,7 +22057,7 @@
         <v>1995</v>
       </c>
       <c r="C1966" t="n">
-        <v>2197</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1967">
@@ -22068,7 +22068,7 @@
         <v>1996</v>
       </c>
       <c r="C1967" t="n">
-        <v>1431</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1968">
@@ -22079,7 +22079,7 @@
         <v>1997</v>
       </c>
       <c r="C1968" t="n">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1969">
@@ -22090,7 +22090,7 @@
         <v>1998</v>
       </c>
       <c r="C1969" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1970">
@@ -22101,7 +22101,7 @@
         <v>1999</v>
       </c>
       <c r="C1970" t="n">
-        <v>1941</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1971">
@@ -22123,7 +22123,7 @@
         <v>2001</v>
       </c>
       <c r="C1972" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1973">
@@ -22134,7 +22134,7 @@
         <v>2002</v>
       </c>
       <c r="C1973" t="n">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1974">
@@ -22145,7 +22145,7 @@
         <v>2003</v>
       </c>
       <c r="C1974" t="n">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1975">
@@ -22222,7 +22222,7 @@
         <v>2010</v>
       </c>
       <c r="C1981" t="n">
-        <v>2262</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1982">
@@ -22475,7 +22475,7 @@
         <v>2033</v>
       </c>
       <c r="C2004" t="n">
-        <v>2256</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="2005">
@@ -22519,7 +22519,7 @@
         <v>2037</v>
       </c>
       <c r="C2008" t="n">
-        <v>2264</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="2009">
@@ -22541,7 +22541,7 @@
         <v>2039</v>
       </c>
       <c r="C2010" t="n">
-        <v>2280</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="2011">
@@ -22607,7 +22607,7 @@
         <v>2045</v>
       </c>
       <c r="C2016" t="n">
-        <v>2245</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="2017">
@@ -22761,7 +22761,7 @@
         <v>2059</v>
       </c>
       <c r="C2030" t="n">
-        <v>2331</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="2031">
@@ -22904,7 +22904,7 @@
         <v>2072</v>
       </c>
       <c r="C2043" t="n">
-        <v>2349</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="2044">
@@ -23201,7 +23201,7 @@
         <v>2099</v>
       </c>
       <c r="C2070" t="n">
-        <v>2379</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="2071">
@@ -23300,7 +23300,7 @@
         <v>2108</v>
       </c>
       <c r="C2079" t="n">
-        <v>2314</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="2080">
@@ -23366,7 +23366,7 @@
         <v>2114</v>
       </c>
       <c r="C2085" t="n">
-        <v>2324</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="2086">
@@ -23432,7 +23432,7 @@
         <v>2120</v>
       </c>
       <c r="C2091" t="n">
-        <v>2362</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="2092">
@@ -23487,7 +23487,7 @@
         <v>2125</v>
       </c>
       <c r="C2096" t="n">
-        <v>2396</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="2097">
@@ -23696,7 +23696,7 @@
         <v>2144</v>
       </c>
       <c r="C2115" t="n">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="2116">
@@ -23718,7 +23718,7 @@
         <v>2146</v>
       </c>
       <c r="C2117" t="n">
-        <v>2346</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="2118">
@@ -23740,7 +23740,7 @@
         <v>2148</v>
       </c>
       <c r="C2119" t="n">
-        <v>2311</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="2120">
@@ -23762,7 +23762,7 @@
         <v>2150</v>
       </c>
       <c r="C2121" t="n">
-        <v>2356</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="2122">
@@ -23828,7 +23828,7 @@
         <v>2156</v>
       </c>
       <c r="C2127" t="n">
-        <v>2364</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="2128">
@@ -23850,7 +23850,7 @@
         <v>2158</v>
       </c>
       <c r="C2129" t="n">
-        <v>2366</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="2130">
@@ -23883,7 +23883,7 @@
         <v>2161</v>
       </c>
       <c r="C2132" t="n">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="2133">
@@ -24059,7 +24059,7 @@
         <v>2177</v>
       </c>
       <c r="C2148" t="n">
-        <v>2412</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="2149">
@@ -24081,7 +24081,7 @@
         <v>2179</v>
       </c>
       <c r="C2150" t="n">
-        <v>2416</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="2151">
@@ -24103,7 +24103,7 @@
         <v>2181</v>
       </c>
       <c r="C2152" t="n">
-        <v>2418</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="2153">
@@ -24125,7 +24125,7 @@
         <v>2183</v>
       </c>
       <c r="C2154" t="n">
-        <v>2420</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="2155">
@@ -24169,7 +24169,7 @@
         <v>2187</v>
       </c>
       <c r="C2158" t="n">
-        <v>2433</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="2159">
@@ -24191,7 +24191,7 @@
         <v>2189</v>
       </c>
       <c r="C2160" t="n">
-        <v>2431</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="2161">
@@ -24213,7 +24213,7 @@
         <v>2191</v>
       </c>
       <c r="C2162" t="n">
-        <v>2425</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="2163">
@@ -24235,7 +24235,7 @@
         <v>2193</v>
       </c>
       <c r="C2164" t="n">
-        <v>2443</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="2165">
@@ -24279,7 +24279,7 @@
         <v>2197</v>
       </c>
       <c r="C2168" t="n">
-        <v>2448</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="2169">
@@ -24301,7 +24301,7 @@
         <v>2199</v>
       </c>
       <c r="C2170" t="n">
-        <v>2464</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2171">
@@ -24334,7 +24334,7 @@
         <v>2202</v>
       </c>
       <c r="C2173" t="n">
-        <v>2466</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="2174">
@@ -24356,7 +24356,7 @@
         <v>2204</v>
       </c>
       <c r="C2175" t="n">
-        <v>2472</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="2176">
@@ -24367,7 +24367,7 @@
         <v>2205</v>
       </c>
       <c r="C2176" t="n">
-        <v>2472</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="2177">
@@ -24389,7 +24389,7 @@
         <v>2207</v>
       </c>
       <c r="C2178" t="n">
-        <v>2437</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="2179">
@@ -24422,7 +24422,7 @@
         <v>2210</v>
       </c>
       <c r="C2181" t="n">
-        <v>2439</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="2182">
@@ -24455,7 +24455,7 @@
         <v>2213</v>
       </c>
       <c r="C2184" t="n">
-        <v>2441</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="2185">
@@ -24499,7 +24499,7 @@
         <v>2217</v>
       </c>
       <c r="C2188" t="n">
-        <v>2477</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="2189">
@@ -24521,7 +24521,7 @@
         <v>2219</v>
       </c>
       <c r="C2190" t="n">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="2191">
@@ -24554,7 +24554,7 @@
         <v>2222</v>
       </c>
       <c r="C2193" t="n">
-        <v>2422</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="2194">
@@ -24576,7 +24576,7 @@
         <v>2224</v>
       </c>
       <c r="C2195" t="n">
-        <v>2435</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="2196">
@@ -24598,7 +24598,7 @@
         <v>2226</v>
       </c>
       <c r="C2197" t="n">
-        <v>2475</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="2198">
@@ -24620,7 +24620,7 @@
         <v>2228</v>
       </c>
       <c r="C2199" t="n">
-        <v>2483</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="2200">
@@ -24642,7 +24642,7 @@
         <v>2230</v>
       </c>
       <c r="C2201" t="n">
-        <v>2481</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="2202">
@@ -24664,7 +24664,7 @@
         <v>2232</v>
       </c>
       <c r="C2203" t="n">
-        <v>2445</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="2204">
@@ -24686,7 +24686,7 @@
         <v>2234</v>
       </c>
       <c r="C2205" t="n">
-        <v>2456</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="2206">
@@ -24708,7 +24708,7 @@
         <v>2236</v>
       </c>
       <c r="C2207" t="n">
-        <v>2451</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="2208">
@@ -24730,7 +24730,7 @@
         <v>2238</v>
       </c>
       <c r="C2209" t="n">
-        <v>2453</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="2210">
@@ -24752,7 +24752,7 @@
         <v>2240</v>
       </c>
       <c r="C2211" t="n">
-        <v>2468</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="2212">
@@ -24774,7 +24774,7 @@
         <v>2242</v>
       </c>
       <c r="C2213" t="n">
-        <v>2487</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="2214">
@@ -24796,7 +24796,7 @@
         <v>2244</v>
       </c>
       <c r="C2215" t="n">
-        <v>2491</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="2216">
@@ -24818,7 +24818,7 @@
         <v>2246</v>
       </c>
       <c r="C2217" t="n">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="2218">
@@ -24840,7 +24840,7 @@
         <v>2248</v>
       </c>
       <c r="C2219" t="n">
-        <v>2458</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="2220">
@@ -24862,7 +24862,7 @@
         <v>2250</v>
       </c>
       <c r="C2221" t="n">
-        <v>2470</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="2222">
@@ -24906,7 +24906,7 @@
         <v>2257</v>
       </c>
       <c r="C2225" t="n">
-        <v>2489</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="2226">
@@ -24961,7 +24961,7 @@
         <v>2262</v>
       </c>
       <c r="C2230" t="n">
-        <v>2497</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="2231">
@@ -24972,7 +24972,7 @@
         <v>2263</v>
       </c>
       <c r="C2231" t="n">
-        <v>2499</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="2232">
@@ -24994,7 +24994,7 @@
         <v>2265</v>
       </c>
       <c r="C2233" t="n">
-        <v>2506</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="2234">
@@ -25049,7 +25049,7 @@
         <v>2271</v>
       </c>
       <c r="C2238" t="n">
-        <v>2531</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="2239">
@@ -25082,7 +25082,7 @@
         <v>2274</v>
       </c>
       <c r="C2241" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2242">
@@ -25115,7 +25115,7 @@
         <v>2277</v>
       </c>
       <c r="C2244" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2245">
@@ -25159,7 +25159,7 @@
         <v>2281</v>
       </c>
       <c r="C2248" t="n">
-        <v>2556</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="2249">
@@ -25181,7 +25181,7 @@
         <v>2283</v>
       </c>
       <c r="C2250" t="n">
-        <v>2560</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="2251">
@@ -25214,7 +25214,7 @@
         <v>2286</v>
       </c>
       <c r="C2253" t="n">
-        <v>2576</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="2254">
@@ -25236,7 +25236,7 @@
         <v>2288</v>
       </c>
       <c r="C2255" t="n">
-        <v>2584</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="2256">
@@ -25280,7 +25280,7 @@
         <v>2292</v>
       </c>
       <c r="C2259" t="n">
-        <v>2586</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="2260">
@@ -25291,7 +25291,7 @@
         <v>2293</v>
       </c>
       <c r="C2260" t="n">
-        <v>2591</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="2261">
@@ -25302,7 +25302,7 @@
         <v>2294</v>
       </c>
       <c r="C2261" t="n">
-        <v>2593</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="2262">
@@ -25313,7 +25313,7 @@
         <v>2295</v>
       </c>
       <c r="C2262" t="n">
-        <v>2586</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="2263">
@@ -25335,7 +25335,7 @@
         <v>2297</v>
       </c>
       <c r="C2264" t="n">
-        <v>2586</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="2265">
@@ -25346,7 +25346,7 @@
         <v>2298</v>
       </c>
       <c r="C2265" t="n">
-        <v>2593</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="2266">
@@ -25357,7 +25357,7 @@
         <v>2299</v>
       </c>
       <c r="C2266" t="n">
-        <v>2586</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="2267">
@@ -25368,7 +25368,7 @@
         <v>2300</v>
       </c>
       <c r="C2267" t="n">
-        <v>2593</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="2268">
@@ -25390,7 +25390,7 @@
         <v>2302</v>
       </c>
       <c r="C2269" t="n">
-        <v>2597</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="2270">
@@ -25434,7 +25434,7 @@
         <v>2306</v>
       </c>
       <c r="C2273" t="n">
-        <v>2616</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="2274">
@@ -25478,7 +25478,7 @@
         <v>2310</v>
       </c>
       <c r="C2277" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2278">
@@ -25489,7 +25489,7 @@
         <v>2311</v>
       </c>
       <c r="C2278" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2279">
@@ -25555,7 +25555,7 @@
         <v>2317</v>
       </c>
       <c r="C2284" t="n">
-        <v>2609</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="2285">
@@ -25599,7 +25599,7 @@
         <v>2321</v>
       </c>
       <c r="C2288" t="n">
-        <v>2611</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="2289">
@@ -25621,7 +25621,7 @@
         <v>2323</v>
       </c>
       <c r="C2290" t="n">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="2291">
@@ -25676,7 +25676,7 @@
         <v>2328</v>
       </c>
       <c r="C2295" t="n">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="2296">
@@ -25698,7 +25698,7 @@
         <v>2330</v>
       </c>
       <c r="C2297" t="n">
-        <v>2657</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="2298">
@@ -25742,7 +25742,7 @@
         <v>2334</v>
       </c>
       <c r="C2301" t="n">
-        <v>2572</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="2302">
@@ -25808,7 +25808,7 @@
         <v>2340</v>
       </c>
       <c r="C2307" t="n">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="2308">
@@ -25819,7 +25819,7 @@
         <v>2341</v>
       </c>
       <c r="C2308" t="n">
-        <v>2621</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="2309">
@@ -25841,7 +25841,7 @@
         <v>2343</v>
       </c>
       <c r="C2310" t="n">
-        <v>2567</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="2311">
@@ -25863,7 +25863,7 @@
         <v>2345</v>
       </c>
       <c r="C2312" t="n">
-        <v>2625</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="2313">
@@ -25885,7 +25885,7 @@
         <v>2347</v>
       </c>
       <c r="C2314" t="n">
-        <v>2527</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="2315">
@@ -25918,7 +25918,7 @@
         <v>2350</v>
       </c>
       <c r="C2317" t="n">
-        <v>2527</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="2318">
@@ -25995,7 +25995,7 @@
         <v>2357</v>
       </c>
       <c r="C2324" t="n">
-        <v>2533</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="2325">
@@ -26006,7 +26006,7 @@
         <v>2358</v>
       </c>
       <c r="C2325" t="n">
-        <v>2547</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="2326">
@@ -26028,7 +26028,7 @@
         <v>2360</v>
       </c>
       <c r="C2327" t="n">
-        <v>2664</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="2328">
@@ -26083,7 +26083,7 @@
         <v>2365</v>
       </c>
       <c r="C2332" t="n">
-        <v>2690</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="2333">
@@ -26116,7 +26116,7 @@
         <v>2368</v>
       </c>
       <c r="C2335" t="n">
-        <v>2692</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="2336">
@@ -26138,7 +26138,7 @@
         <v>2370</v>
       </c>
       <c r="C2337" t="n">
-        <v>2672</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="2338">
@@ -26182,7 +26182,7 @@
         <v>2374</v>
       </c>
       <c r="C2341" t="n">
-        <v>2674</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="2342">
@@ -26204,7 +26204,7 @@
         <v>2376</v>
       </c>
       <c r="C2343" t="n">
-        <v>2699</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="2344">
@@ -26226,7 +26226,7 @@
         <v>2378</v>
       </c>
       <c r="C2345" t="n">
-        <v>2699</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="2346">
@@ -26237,7 +26237,7 @@
         <v>2379</v>
       </c>
       <c r="C2346" t="n">
-        <v>2704</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="2347">
@@ -26281,7 +26281,7 @@
         <v>2385</v>
       </c>
       <c r="C2350" t="n">
-        <v>2549</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="2351">
@@ -26314,7 +26314,7 @@
         <v>2388</v>
       </c>
       <c r="C2353" t="n">
-        <v>2623</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="2354">
@@ -26336,7 +26336,7 @@
         <v>2390</v>
       </c>
       <c r="C2355" t="n">
-        <v>2709</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="2356">
@@ -26402,7 +26402,7 @@
         <v>2396</v>
       </c>
       <c r="C2361" t="n">
-        <v>2716</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="2362">
@@ -26468,7 +26468,7 @@
         <v>2402</v>
       </c>
       <c r="C2367" t="n">
-        <v>2680</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="2368">
@@ -26490,7 +26490,7 @@
         <v>2404</v>
       </c>
       <c r="C2369" t="n">
-        <v>2725</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="2370">
@@ -26523,7 +26523,7 @@
         <v>2407</v>
       </c>
       <c r="C2372" t="n">
-        <v>2684</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="2373">
@@ -26600,7 +26600,7 @@
         <v>2414</v>
       </c>
       <c r="C2379" t="n">
-        <v>2735</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="2380">
@@ -26622,7 +26622,7 @@
         <v>2416</v>
       </c>
       <c r="C2381" t="n">
-        <v>2574</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="2382">
@@ -26666,7 +26666,7 @@
         <v>2420</v>
       </c>
       <c r="C2385" t="n">
-        <v>2733</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="2386">
@@ -26688,7 +26688,7 @@
         <v>2422</v>
       </c>
       <c r="C2387" t="n">
-        <v>2554</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="2388">
@@ -26710,7 +26710,7 @@
         <v>2424</v>
       </c>
       <c r="C2389" t="n">
-        <v>2702</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="2390">
@@ -26754,7 +26754,7 @@
         <v>2428</v>
       </c>
       <c r="C2393" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2394">
@@ -26787,7 +26787,7 @@
         <v>2431</v>
       </c>
       <c r="C2396" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2397">
@@ -26798,7 +26798,7 @@
         <v>2432</v>
       </c>
       <c r="C2397" t="n">
-        <v>2718</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="2398">
@@ -26831,7 +26831,7 @@
         <v>2435</v>
       </c>
       <c r="C2400" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2401">
@@ -26875,7 +26875,7 @@
         <v>2439</v>
       </c>
       <c r="C2404" t="n">
-        <v>2551</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="2405">
@@ -27029,7 +27029,7 @@
         <v>2453</v>
       </c>
       <c r="C2418" t="n">
-        <v>2650</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="2419">
@@ -27051,7 +27051,7 @@
         <v>2456</v>
       </c>
       <c r="C2420" t="n">
-        <v>2579</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="2421">
@@ -27073,7 +27073,7 @@
         <v>2458</v>
       </c>
       <c r="C2422" t="n">
-        <v>2537</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="2423">
@@ -27095,7 +27095,7 @@
         <v>2460</v>
       </c>
       <c r="C2424" t="n">
-        <v>2504</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="2425">
@@ -27128,7 +27128,7 @@
         <v>2463</v>
       </c>
       <c r="C2427" t="n">
-        <v>2502</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="2428">
@@ -27150,7 +27150,7 @@
         <v>2465</v>
       </c>
       <c r="C2429" t="n">
-        <v>2711</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="2430">
@@ -27183,7 +27183,7 @@
         <v>2468</v>
       </c>
       <c r="C2432" t="n">
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="2433">
@@ -27216,7 +27216,7 @@
         <v>2471</v>
       </c>
       <c r="C2435" t="n">
-        <v>2516</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="2436">
@@ -27249,7 +27249,7 @@
         <v>2474</v>
       </c>
       <c r="C2438" t="n">
-        <v>2613</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="2439">
@@ -27304,7 +27304,7 @@
         <v>2479</v>
       </c>
       <c r="C2443" t="n">
-        <v>2519</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="2444">
@@ -27359,7 +27359,7 @@
         <v>2484</v>
       </c>
       <c r="C2448" t="n">
-        <v>2750</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="2449">
@@ -27414,7 +27414,7 @@
         <v>2489</v>
       </c>
       <c r="C2453" t="n">
-        <v>2541</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="2454">
@@ -27425,7 +27425,7 @@
         <v>2490</v>
       </c>
       <c r="C2454" t="n">
-        <v>2543</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="2455">
@@ -27469,7 +27469,7 @@
         <v>2494</v>
       </c>
       <c r="C2458" t="n">
-        <v>2508</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="2459">
@@ -27502,7 +27502,7 @@
         <v>2497</v>
       </c>
       <c r="C2461" t="n">
-        <v>2659</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="2462">
@@ -27524,7 +27524,7 @@
         <v>2499</v>
       </c>
       <c r="C2463" t="n">
-        <v>2645</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="2464">
@@ -27623,7 +27623,7 @@
         <v>2508</v>
       </c>
       <c r="C2472" t="n">
-        <v>2601</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="2473">
@@ -27634,7 +27634,7 @@
         <v>2509</v>
       </c>
       <c r="C2473" t="n">
-        <v>2752</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="2474">
@@ -27744,7 +27744,7 @@
         <v>2519</v>
       </c>
       <c r="C2483" t="n">
-        <v>2563</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="2484">
@@ -27788,7 +27788,7 @@
         <v>2523</v>
       </c>
       <c r="C2487" t="n">
-        <v>2730</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="2488">
@@ -27799,7 +27799,7 @@
         <v>2524</v>
       </c>
       <c r="C2488" t="n">
-        <v>2745</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="2489">
@@ -27810,7 +27810,7 @@
         <v>2525</v>
       </c>
       <c r="C2489" t="n">
-        <v>2754</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="2490">
@@ -27843,7 +27843,7 @@
         <v>2528</v>
       </c>
       <c r="C2492" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2493">
@@ -27865,7 +27865,7 @@
         <v>2530</v>
       </c>
       <c r="C2494" t="n">
-        <v>2581</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="2495">
@@ -27876,7 +27876,7 @@
         <v>2531</v>
       </c>
       <c r="C2495" t="n">
-        <v>2581</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="2496">
@@ -27887,7 +27887,7 @@
         <v>2532</v>
       </c>
       <c r="C2496" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2497">
@@ -27920,7 +27920,7 @@
         <v>2535</v>
       </c>
       <c r="C2499" t="n">
-        <v>2630</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="2500">
@@ -27964,7 +27964,7 @@
         <v>2539</v>
       </c>
       <c r="C2503" t="n">
-        <v>2686</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="2504">
@@ -27986,7 +27986,7 @@
         <v>2541</v>
       </c>
       <c r="C2505" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2506">
@@ -28030,7 +28030,7 @@
         <v>2545</v>
       </c>
       <c r="C2509" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2510">
@@ -28052,7 +28052,7 @@
         <v>2547</v>
       </c>
       <c r="C2511" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2512">
@@ -28074,7 +28074,7 @@
         <v>2549</v>
       </c>
       <c r="C2513" t="n">
-        <v>2722</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="2514">
@@ -28085,7 +28085,7 @@
         <v>2550</v>
       </c>
       <c r="C2514" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2515">
@@ -28118,7 +28118,7 @@
         <v>2553</v>
       </c>
       <c r="C2517" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2518">
@@ -28129,7 +28129,7 @@
         <v>2554</v>
       </c>
       <c r="C2518" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2519">
@@ -28151,7 +28151,7 @@
         <v>2556</v>
       </c>
       <c r="C2520" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2521">
@@ -28162,7 +28162,7 @@
         <v>2557</v>
       </c>
       <c r="C2521" t="n">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2522">
@@ -28206,7 +28206,7 @@
         <v>2561</v>
       </c>
       <c r="C2525" t="n">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2526">
@@ -28338,7 +28338,7 @@
         <v>2573</v>
       </c>
       <c r="C2537" t="n">
-        <v>2779</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="2538">
@@ -28360,7 +28360,7 @@
         <v>2575</v>
       </c>
       <c r="C2539" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2540">
@@ -28382,7 +28382,7 @@
         <v>2577</v>
       </c>
       <c r="C2541" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2542">
@@ -28404,7 +28404,7 @@
         <v>2579</v>
       </c>
       <c r="C2543" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2544">
@@ -28437,7 +28437,7 @@
         <v>2582</v>
       </c>
       <c r="C2546" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2547">
@@ -28470,7 +28470,7 @@
         <v>2585</v>
       </c>
       <c r="C2549" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2550">
@@ -28536,7 +28536,7 @@
         <v>2591</v>
       </c>
       <c r="C2555" t="n">
-        <v>2769</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="2556">
@@ -28558,7 +28558,7 @@
         <v>2593</v>
       </c>
       <c r="C2557" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2558">
@@ -28580,7 +28580,7 @@
         <v>2595</v>
       </c>
       <c r="C2559" t="n">
-        <v>2775</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="2560">
@@ -28657,7 +28657,7 @@
         <v>2602</v>
       </c>
       <c r="C2566" t="n">
-        <v>2668</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="2567">
@@ -28668,7 +28668,7 @@
         <v>2603</v>
       </c>
       <c r="C2567" t="n">
-        <v>2670</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="2568">
@@ -28756,7 +28756,7 @@
         <v>2611</v>
       </c>
       <c r="C2575" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2576">
@@ -28778,7 +28778,7 @@
         <v>2613</v>
       </c>
       <c r="C2577" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2578">
@@ -28811,7 +28811,7 @@
         <v>2616</v>
       </c>
       <c r="C2580" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2581">
@@ -28822,7 +28822,7 @@
         <v>2617</v>
       </c>
       <c r="C2581" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2582">
@@ -28888,7 +28888,7 @@
         <v>2623</v>
       </c>
       <c r="C2587" t="n">
-        <v>2801</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="2588">
@@ -29317,7 +29317,7 @@
         <v>2662</v>
       </c>
       <c r="C2626" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2627">
@@ -29328,7 +29328,7 @@
         <v>2663</v>
       </c>
       <c r="C2627" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2628">
@@ -29350,7 +29350,7 @@
         <v>2665</v>
       </c>
       <c r="C2629" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2630">
@@ -29361,7 +29361,7 @@
         <v>2666</v>
       </c>
       <c r="C2630" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2631">
@@ -29372,7 +29372,7 @@
         <v>2667</v>
       </c>
       <c r="C2631" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2632">
@@ -29394,7 +29394,7 @@
         <v>2669</v>
       </c>
       <c r="C2633" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2634">
@@ -29416,7 +29416,7 @@
         <v>2671</v>
       </c>
       <c r="C2635" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2636">
@@ -29438,7 +29438,7 @@
         <v>2673</v>
       </c>
       <c r="C2637" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2638">
@@ -29460,7 +29460,7 @@
         <v>2675</v>
       </c>
       <c r="C2639" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2640">
@@ -29482,7 +29482,7 @@
         <v>2677</v>
       </c>
       <c r="C2641" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2642">
@@ -29493,7 +29493,7 @@
         <v>2678</v>
       </c>
       <c r="C2642" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2643">
@@ -29504,7 +29504,7 @@
         <v>2679</v>
       </c>
       <c r="C2643" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2644">
@@ -29515,7 +29515,7 @@
         <v>2680</v>
       </c>
       <c r="C2644" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2645">
@@ -29548,7 +29548,7 @@
         <v>2683</v>
       </c>
       <c r="C2647" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2648">
@@ -29581,7 +29581,7 @@
         <v>2686</v>
       </c>
       <c r="C2650" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2651">
@@ -29603,7 +29603,7 @@
         <v>2688</v>
       </c>
       <c r="C2652" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2653">
@@ -29680,7 +29680,7 @@
         <v>2695</v>
       </c>
       <c r="C2659" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2660">
@@ -29702,7 +29702,7 @@
         <v>2697</v>
       </c>
       <c r="C2661" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2662">
@@ -29812,7 +29812,7 @@
         <v>2707</v>
       </c>
       <c r="C2671" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2672">
@@ -29834,7 +29834,7 @@
         <v>2709</v>
       </c>
       <c r="C2673" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2674">
@@ -29889,7 +29889,7 @@
         <v>2714</v>
       </c>
       <c r="C2678" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2679">
@@ -29911,7 +29911,7 @@
         <v>2716</v>
       </c>
       <c r="C2680" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2681">
@@ -29988,7 +29988,7 @@
         <v>2723</v>
       </c>
       <c r="C2687" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2688">
@@ -29999,7 +29999,7 @@
         <v>2724</v>
       </c>
       <c r="C2688" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2689">
@@ -30054,7 +30054,7 @@
         <v>2729</v>
       </c>
       <c r="C2693" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2694">
@@ -30065,7 +30065,7 @@
         <v>2730</v>
       </c>
       <c r="C2694" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2695">
@@ -30087,7 +30087,7 @@
         <v>2732</v>
       </c>
       <c r="C2696" t="n">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2697">
@@ -30098,7 +30098,7 @@
         <v>2733</v>
       </c>
       <c r="C2697" t="n">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2698">
@@ -30120,7 +30120,7 @@
         <v>2735</v>
       </c>
       <c r="C2699" t="n">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="2700">
@@ -30153,7 +30153,7 @@
         <v>2738</v>
       </c>
       <c r="C2702" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2703">
@@ -30208,7 +30208,7 @@
         <v>2743</v>
       </c>
       <c r="C2707" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2708">
@@ -30252,7 +30252,7 @@
         <v>2747</v>
       </c>
       <c r="C2711" t="n">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="2712">
@@ -30329,7 +30329,7 @@
         <v>2754</v>
       </c>
       <c r="C2718" t="n">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2719">
@@ -30340,7 +30340,7 @@
         <v>2755</v>
       </c>
       <c r="C2719" t="n">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="2720">
@@ -30417,7 +30417,7 @@
         <v>2762</v>
       </c>
       <c r="C2726" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="2727">
@@ -30428,7 +30428,7 @@
         <v>2763</v>
       </c>
       <c r="C2727" t="n">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2728">
@@ -30439,7 +30439,7 @@
         <v>2764</v>
       </c>
       <c r="C2728" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2729">
@@ -30450,7 +30450,7 @@
         <v>2765</v>
       </c>
       <c r="C2729" t="n">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2730">
@@ -30461,7 +30461,7 @@
         <v>2766</v>
       </c>
       <c r="C2730" t="n">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="2731">
@@ -30472,7 +30472,7 @@
         <v>2767</v>
       </c>
       <c r="C2731" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2732">
@@ -30483,7 +30483,7 @@
         <v>2768</v>
       </c>
       <c r="C2732" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="2733">
@@ -30516,7 +30516,7 @@
         <v>2771</v>
       </c>
       <c r="C2735" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2736">
@@ -30527,7 +30527,7 @@
         <v>2772</v>
       </c>
       <c r="C2736" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2737">
@@ -30538,7 +30538,7 @@
         <v>2773</v>
       </c>
       <c r="C2737" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2738">
@@ -30560,7 +30560,7 @@
         <v>2775</v>
       </c>
       <c r="C2739" t="n">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="2740">
@@ -30571,7 +30571,7 @@
         <v>2776</v>
       </c>
       <c r="C2740" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2741">
@@ -30582,7 +30582,7 @@
         <v>2777</v>
       </c>
       <c r="C2741" t="n">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2742">
@@ -30648,7 +30648,7 @@
         <v>2783</v>
       </c>
       <c r="C2747" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="2748">
@@ -30659,7 +30659,7 @@
         <v>2784</v>
       </c>
       <c r="C2748" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="2749">
@@ -30681,7 +30681,7 @@
         <v>2786</v>
       </c>
       <c r="C2750" t="n">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="2751">
@@ -30714,7 +30714,7 @@
         <v>2789</v>
       </c>
       <c r="C2753" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2754">
@@ -30725,7 +30725,7 @@
         <v>2790</v>
       </c>
       <c r="C2754" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2755">
@@ -30736,7 +30736,7 @@
         <v>2791</v>
       </c>
       <c r="C2755" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2756">
@@ -30747,7 +30747,7 @@
         <v>2792</v>
       </c>
       <c r="C2756" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2757">
@@ -30758,7 +30758,7 @@
         <v>2793</v>
       </c>
       <c r="C2757" t="n">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2758">
@@ -30769,7 +30769,7 @@
         <v>2794</v>
       </c>
       <c r="C2758" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="2759">
@@ -30780,7 +30780,7 @@
         <v>2795</v>
       </c>
       <c r="C2759" t="n">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2760">
@@ -30791,7 +30791,7 @@
         <v>2796</v>
       </c>
       <c r="C2760" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2761">
@@ -30813,7 +30813,7 @@
         <v>2798</v>
       </c>
       <c r="C2762" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2763">
@@ -30824,7 +30824,7 @@
         <v>2799</v>
       </c>
       <c r="C2763" t="n">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="2764">
@@ -30835,7 +30835,7 @@
         <v>2800</v>
       </c>
       <c r="C2764" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="2765">
@@ -30846,7 +30846,7 @@
         <v>2801</v>
       </c>
       <c r="C2765" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="2766">
@@ -30868,7 +30868,7 @@
         <v>2803</v>
       </c>
       <c r="C2767" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2768">
@@ -30879,7 +30879,7 @@
         <v>2804</v>
       </c>
       <c r="C2768" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="2769">
@@ -30890,7 +30890,7 @@
         <v>2805</v>
       </c>
       <c r="C2769" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2770">
@@ -30901,7 +30901,7 @@
         <v>2806</v>
       </c>
       <c r="C2770" t="n">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="2771">
@@ -30912,7 +30912,7 @@
         <v>2807</v>
       </c>
       <c r="C2771" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="2772">
@@ -30934,7 +30934,7 @@
         <v>2809</v>
       </c>
       <c r="C2773" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="2774">
@@ -30945,7 +30945,7 @@
         <v>2810</v>
       </c>
       <c r="C2774" t="n">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="2775">
@@ -30956,7 +30956,7 @@
         <v>2811</v>
       </c>
       <c r="C2775" t="n">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="2776">
@@ -30967,7 +30967,7 @@
         <v>2812</v>
       </c>
       <c r="C2776" t="n">
-        <v>1219</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="2777">
@@ -30978,7 +30978,7 @@
         <v>2813</v>
       </c>
       <c r="C2777" t="n">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2778">
@@ -30989,7 +30989,7 @@
         <v>2814</v>
       </c>
       <c r="C2778" t="n">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2779">
@@ -31000,7 +31000,7 @@
         <v>2815</v>
       </c>
       <c r="C2779" t="n">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2780">
@@ -31011,7 +31011,7 @@
         <v>2816</v>
       </c>
       <c r="C2780" t="n">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2781">
@@ -31022,7 +31022,7 @@
         <v>2817</v>
       </c>
       <c r="C2781" t="n">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2782">
@@ -31033,7 +31033,7 @@
         <v>2818</v>
       </c>
       <c r="C2782" t="n">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="2783">
@@ -31044,7 +31044,7 @@
         <v>2819</v>
       </c>
       <c r="C2783" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="2784">
@@ -31055,7 +31055,7 @@
         <v>2820</v>
       </c>
       <c r="C2784" t="n">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2785">
@@ -31066,7 +31066,7 @@
         <v>2821</v>
       </c>
       <c r="C2785" t="n">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="2786">
@@ -31077,7 +31077,7 @@
         <v>2822</v>
       </c>
       <c r="C2786" t="n">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="2787">
@@ -31088,7 +31088,7 @@
         <v>2823</v>
       </c>
       <c r="C2787" t="n">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="2788">
@@ -31099,7 +31099,7 @@
         <v>2824</v>
       </c>
       <c r="C2788" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2789">
@@ -31110,7 +31110,7 @@
         <v>2825</v>
       </c>
       <c r="C2789" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2790">
@@ -31121,7 +31121,7 @@
         <v>2826</v>
       </c>
       <c r="C2790" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2791">
@@ -31132,7 +31132,7 @@
         <v>2827</v>
       </c>
       <c r="C2791" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2792">
@@ -31154,7 +31154,7 @@
         <v>2829</v>
       </c>
       <c r="C2793" t="n">
-        <v>2460</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="2794">
@@ -31165,7 +31165,7 @@
         <v>2830</v>
       </c>
       <c r="C2794" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2795">
@@ -31176,7 +31176,7 @@
         <v>2831</v>
       </c>
       <c r="C2795" t="n">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2796">
@@ -31187,7 +31187,7 @@
         <v>2832</v>
       </c>
       <c r="C2796" t="n">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="2797">
@@ -31198,7 +31198,7 @@
         <v>2833</v>
       </c>
       <c r="C2797" t="n">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2798">
@@ -31209,7 +31209,7 @@
         <v>2834</v>
       </c>
       <c r="C2798" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2799">
@@ -31242,7 +31242,7 @@
         <v>2837</v>
       </c>
       <c r="C2801" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2802">
@@ -31253,7 +31253,7 @@
         <v>2838</v>
       </c>
       <c r="C2802" t="n">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2803">
@@ -31264,7 +31264,7 @@
         <v>2839</v>
       </c>
       <c r="C2803" t="n">
-        <v>2713</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="2804">
@@ -31275,7 +31275,7 @@
         <v>2840</v>
       </c>
       <c r="C2804" t="n">
-        <v>2460</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="2805">
@@ -31286,7 +31286,7 @@
         <v>2841</v>
       </c>
       <c r="C2805" t="n">
-        <v>2460</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="2806">
@@ -31308,7 +31308,7 @@
         <v>2843</v>
       </c>
       <c r="C2807" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2808">
@@ -31319,7 +31319,7 @@
         <v>2844</v>
       </c>
       <c r="C2808" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2809">
@@ -31330,7 +31330,7 @@
         <v>2845</v>
       </c>
       <c r="C2809" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2810">
@@ -31352,7 +31352,7 @@
         <v>2847</v>
       </c>
       <c r="C2811" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2812">
@@ -31363,7 +31363,7 @@
         <v>2848</v>
       </c>
       <c r="C2812" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2813">
@@ -31374,7 +31374,7 @@
         <v>2849</v>
       </c>
       <c r="C2813" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2814">
@@ -31385,7 +31385,7 @@
         <v>2850</v>
       </c>
       <c r="C2814" t="n">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="2815">
@@ -31396,7 +31396,7 @@
         <v>2851</v>
       </c>
       <c r="C2815" t="n">
-        <v>2210</v>
+        <v>2211</v>
       </c>
     </row>
   </sheetData>
